--- a/data/trans_dic/P21B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9054413338972618</v>
+        <v>0.9082758711448713</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9529379365325777</v>
+        <v>0.9554906854011171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9460244544145557</v>
+        <v>0.9457270041401898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9321129898918877</v>
+        <v>0.9337438826367591</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9536968389579584</v>
+        <v>0.9509307664345868</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9689866310145849</v>
+        <v>0.9673835009647309</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9595372705307761</v>
+        <v>0.9563993008112061</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9523977218936887</v>
+        <v>0.9498209059754289</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9472371252419736</v>
+        <v>0.9448319776359538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.971589709363638</v>
+        <v>0.970819774563822</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9617399596005114</v>
+        <v>0.9641390074008025</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9600521228649617</v>
+        <v>0.9568774546805785</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9730368940029989</v>
+        <v>0.9748786756161398</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9920036421171278</v>
+        <v>0.9918903560471717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9941498870431387</v>
+        <v>0.9940358481198784</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9896353469364058</v>
+        <v>0.9894565623216827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9883423382716749</v>
+        <v>0.9884586053296244</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9974429104173884</v>
+        <v>0.9974468502344451</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9956225010017711</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9889152188544357</v>
+        <v>0.9884865569639135</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9781576455439417</v>
+        <v>0.9783530936080728</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9922890652182167</v>
+        <v>0.9925079670568374</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9940965847105726</v>
+        <v>0.9928336740285117</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9867423674471814</v>
+        <v>0.9856115381662284</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.9333712302276338</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9223403035703466</v>
+        <v>0.9223403035703465</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9497822707108896</v>
+        <v>0.9486235860245953</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9517249289239599</v>
+        <v>0.9505642172919938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8845434815104675</v>
+        <v>0.8861704252170287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8940335575082289</v>
+        <v>0.8950688924062413</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.948427404999687</v>
+        <v>0.9480798586868865</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9517719081576149</v>
+        <v>0.9508890899084677</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9108330147516008</v>
+        <v>0.9130900048108654</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8899993342562631</v>
+        <v>0.8886433073409508</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9566429532571082</v>
+        <v>0.9567442898758609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.959708567519246</v>
+        <v>0.960107479793459</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9089819280941651</v>
+        <v>0.9108990288312078</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9012666089611759</v>
+        <v>0.9008557620292154</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.990310489999532</v>
+        <v>0.987947631630216</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9896549177828829</v>
+        <v>0.9894959686966258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.950614845477057</v>
+        <v>0.9493239166104891</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9544350134200601</v>
+        <v>0.954679031791835</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9851274174927076</v>
+        <v>0.9838054179237798</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9849703067166775</v>
+        <v>0.9850095658390697</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9638102033280979</v>
+        <v>0.9625497097613502</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9367073839954879</v>
+        <v>0.9346353056058795</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9831995075697831</v>
+        <v>0.9834115818990293</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9833765937753064</v>
+        <v>0.9838668194140826</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9501397153191086</v>
+        <v>0.9506729180262391</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.93799289816064</v>
+        <v>0.9374636309117982</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8559116421920521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8119095102868582</v>
+        <v>0.8119095102868583</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9388552636293226</v>
@@ -957,7 +957,7 @@
         <v>0.7832372879730466</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8461585991340694</v>
+        <v>0.8461585991340692</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9220447279144982</v>
@@ -969,7 +969,7 @@
         <v>0.8090397346651655</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8305426531240592</v>
+        <v>0.8305426531240589</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8093043730941396</v>
+        <v>0.8085835301385159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8600164426184534</v>
+        <v>0.8613350000654121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7552878278939816</v>
+        <v>0.7446645897161677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7388881645244203</v>
+        <v>0.7367627351776229</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8739612181368265</v>
+        <v>0.8772005875965889</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8013414258844166</v>
+        <v>0.8120242861519312</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7003035970938443</v>
+        <v>0.7006726501024487</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7907419521059503</v>
+        <v>0.7941958159851025</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8707483685367778</v>
+        <v>0.8692431151796045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8509011739983731</v>
+        <v>0.8566868555261972</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7440014727614213</v>
+        <v>0.743278272078603</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7821003269303489</v>
+        <v>0.7842268606858235</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9564356775337238</v>
+        <v>0.956755561536863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9856403702377443</v>
+        <v>0.9857022960335492</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9323900466417578</v>
+        <v>0.9230813111894889</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8731713419225718</v>
+        <v>0.8766745128726252</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9758557220841915</v>
+        <v>0.9747169672256454</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9360716660288183</v>
+        <v>0.9369252610798825</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8522229614604793</v>
+        <v>0.849788519514584</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.892961927078457</v>
+        <v>0.8873023062499745</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9547484026993422</v>
+        <v>0.9587287319961141</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9459142312446931</v>
+        <v>0.9469494577622969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8601376865409743</v>
+        <v>0.8597833579637019</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8652342941317509</v>
+        <v>0.8664010600551354</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9286896065495732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9131687569815986</v>
+        <v>0.9131687569815983</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9675758600268706</v>
@@ -1093,7 +1093,7 @@
         <v>0.925870429192953</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9167804895223203</v>
+        <v>0.9167804895223204</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.962251268524312</v>
@@ -1105,7 +1105,7 @@
         <v>0.9270649294522652</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.915192915978956</v>
+        <v>0.9151929159789562</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.931988368735027</v>
+        <v>0.9331260916380889</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9588825178118957</v>
+        <v>0.9578449850201772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9031876443155857</v>
+        <v>0.9015617097075584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8888934496918934</v>
+        <v>0.8858173337404532</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9531669611558864</v>
+        <v>0.9538738590668864</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9546730680734192</v>
+        <v>0.9544687976255808</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9048043734262309</v>
+        <v>0.9058278736440004</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8955476418679222</v>
+        <v>0.8977882363676019</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9505960682506117</v>
+        <v>0.9491371145731852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9620229732184313</v>
+        <v>0.962105745396228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9102242129145117</v>
+        <v>0.9106842183987683</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9011008462253332</v>
+        <v>0.8997279427252483</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9701093363924156</v>
+        <v>0.9697315095771659</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.984350533144572</v>
+        <v>0.9842598333889856</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9486047302939636</v>
+        <v>0.9501768564539526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9331871737320867</v>
+        <v>0.9328395072466137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9784904187328329</v>
+        <v>0.9796091662954302</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9786072357932944</v>
+        <v>0.9791280546686126</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9419115214521649</v>
+        <v>0.9442726962483962</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9319592174501679</v>
+        <v>0.9317380281338471</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9724731139518606</v>
+        <v>0.9714765799417889</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9789781044672604</v>
+        <v>0.9784760947381826</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9405536820616158</v>
+        <v>0.9409325408218518</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9287518335055438</v>
+        <v>0.9285650764956654</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>179083</v>
+        <v>179643</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>238139</v>
+        <v>238777</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>129799</v>
+        <v>129758</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>131238</v>
+        <v>131467</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>325657</v>
+        <v>324712</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>397098</v>
+        <v>396441</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>214115</v>
+        <v>213415</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>228260</v>
+        <v>227643</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>510800</v>
+        <v>509503</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>640964</v>
+        <v>640456</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>346562</v>
+        <v>347427</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>365265</v>
+        <v>364057</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>192452</v>
+        <v>192816</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>247902</v>
+        <v>247873</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>136402</v>
+        <v>136387</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>139337</v>
+        <v>139312</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>337487</v>
+        <v>337527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>408759</v>
+        <v>408761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>222167</v>
+        <v>223144</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>237012</v>
+        <v>236910</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>527474</v>
+        <v>527580</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>654619</v>
+        <v>654763</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>358222</v>
+        <v>357767</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>375420</v>
+        <v>374990</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>266938</v>
+        <v>266613</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>364997</v>
+        <v>364552</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>297739</v>
+        <v>298287</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>385760</v>
+        <v>386207</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>357033</v>
+        <v>356902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>429311</v>
+        <v>428913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>353011</v>
+        <v>353885</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>447686</v>
+        <v>447004</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>628992</v>
+        <v>629058</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>800950</v>
+        <v>801283</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>658258</v>
+        <v>659647</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>842235</v>
+        <v>841851</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>278329</v>
+        <v>277665</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>379544</v>
+        <v>379483</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>319979</v>
+        <v>319544</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>411822</v>
+        <v>411928</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>370848</v>
+        <v>370351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>444286</v>
+        <v>444303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>373543</v>
+        <v>373054</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>471181</v>
+        <v>470138</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>646453</v>
+        <v>646592</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>820703</v>
+        <v>821112</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>688064</v>
+        <v>688450</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>876555</v>
+        <v>876061</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64427</v>
+        <v>64370</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>59740</v>
+        <v>59832</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55810</v>
+        <v>55025</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>117716</v>
+        <v>117377</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>92722</v>
+        <v>93066</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>91600</v>
+        <v>92821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>94001</v>
+        <v>94051</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>150317</v>
+        <v>150973</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>161701</v>
+        <v>161421</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>156372</v>
+        <v>157435</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>154842</v>
+        <v>154692</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>273274</v>
+        <v>274017</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>76140</v>
+        <v>76165</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>68467</v>
+        <v>68471</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68896</v>
+        <v>68208</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>139109</v>
+        <v>139667</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>103532</v>
+        <v>103412</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>107000</v>
+        <v>107098</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>114393</v>
+        <v>114066</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>169748</v>
+        <v>168673</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>177300</v>
+        <v>178039</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>173833</v>
+        <v>174023</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>179013</v>
+        <v>178939</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>302322</v>
+        <v>302730</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>520465</v>
+        <v>521101</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>673975</v>
+        <v>673245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>494675</v>
+        <v>493784</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>650309</v>
+        <v>648059</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>785418</v>
+        <v>786001</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>930977</v>
+        <v>930778</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>674027</v>
+        <v>674789</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>835352</v>
+        <v>837442</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1314155</v>
+        <v>1312138</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1614327</v>
+        <v>1614466</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1176593</v>
+        <v>1177188</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1499772</v>
+        <v>1497486</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>541754</v>
+        <v>541543</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>691875</v>
+        <v>691812</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>519550</v>
+        <v>520411</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>682714</v>
+        <v>682460</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>806285</v>
+        <v>807207</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>954317</v>
+        <v>954825</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>701669</v>
+        <v>703428</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>869316</v>
+        <v>869109</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1344399</v>
+        <v>1343022</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1642779</v>
+        <v>1641937</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1215798</v>
+        <v>1216288</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1545793</v>
+        <v>1545482</v>
       </c>
     </row>
     <row r="20">
